--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeros\OneDrive\문서\android_stick_form\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91079027-8CC8-4B84-A80A-1F89409D6BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8910" yWindow="3555" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -208,12 +214,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,8 +227,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,17 +281,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,7 +337,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -350,6 +371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -384,9 +406,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,14 +582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -612,7 +635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -635,7 +658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -658,7 +681,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -681,7 +704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -704,7 +727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -727,7 +750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -750,7 +773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -773,7 +796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -796,7 +819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -819,7 +842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -842,7 +865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -865,7 +888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -888,7 +911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -911,7 +934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -935,6 +958,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>